--- a/mlbreport/mlb_model_results.xlsx
+++ b/mlbreport/mlb_model_results.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Compare" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="AllTeams" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Feature_Method_Compare" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AllTeams_PrimaryFeatures" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OPS+ERA</t>
+          <t>Random Forest Importance</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.006281244</v>
+        <v>0.034209786</v>
       </c>
       <c r="D2" t="n">
-        <v>0.035176655</v>
+        <v>0.759611941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OPS+ERA</t>
+          <t>Random Forest Importance</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -485,17 +485,13 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.01067556</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.6398072</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Selected_Features</t>
+          <t>Pearson Correlation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -504,16 +500,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.3875e-05</v>
+        <v>0.266958118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.953887138</v>
+        <v>-0.87588263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Selected_Features</t>
+          <t>Pearson Correlation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -521,12 +517,168 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.00025289</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.734213892</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Spearman Correlation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.266958118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.87588263</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Spearman Correlation</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kendall Correlation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.266958118</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.87588263</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kendall Correlation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RFECV</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.028030902</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.803030219</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RFECV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Engineered Features</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.158268865</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.112136306</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Engineered Features</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OPS+ERA (Control)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.266958118</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.87588263</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OPS+ERA (Control)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -581,10 +733,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001446272</v>
+        <v>0.311020915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.319721323</v>
+        <v>0.021888774</v>
       </c>
     </row>
     <row r="3">
@@ -598,12 +750,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.006635667</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-2.121197868</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -617,10 +765,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.000921608</v>
+        <v>0.465789795</v>
       </c>
       <c r="D4" t="n">
-        <v>0.893389967</v>
+        <v>0.639750301</v>
       </c>
     </row>
     <row r="5">
@@ -634,12 +782,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.000524667</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9393074729999999</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -653,10 +797,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.005882471</v>
+        <v>1.349911116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.189692686</v>
+        <v>-0.243245939</v>
       </c>
     </row>
     <row r="7">
@@ -670,12 +814,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0.012851667</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.770310395</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -689,10 +829,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.006270953</v>
+        <v>1.040190748</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.24079014</v>
+        <v>-0.376067247</v>
       </c>
     </row>
     <row r="9">
@@ -706,12 +846,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0.002187</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.567273447</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -725,10 +861,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.001472169</v>
+        <v>0.545757453</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464406258</v>
+        <v>-0.32751522</v>
       </c>
     </row>
     <row r="11">
@@ -742,12 +878,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.004593667</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.671234538</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -761,10 +893,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.001089036</v>
+        <v>0.748108521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.420930805</v>
+        <v>-1.65958995</v>
       </c>
     </row>
     <row r="13">
@@ -778,12 +910,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.000612</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.674583481</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -797,10 +925,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000964734</v>
+        <v>0.408579042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.668881035</v>
+        <v>0.062406277</v>
       </c>
     </row>
     <row r="15">
@@ -814,12 +942,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0.002375</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.184844787</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -833,10 +957,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.00203062</v>
+        <v>0.187925682</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.181967132</v>
+        <v>0.26865064</v>
       </c>
     </row>
     <row r="17">
@@ -850,12 +974,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0.000385</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.775902212</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -869,10 +989,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.004162528</v>
+        <v>1.677013769</v>
       </c>
       <c r="D18" t="n">
-        <v>0.411481245</v>
+        <v>-0.585264382</v>
       </c>
     </row>
     <row r="19">
@@ -886,12 +1006,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>0.006297667</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.109604751</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -905,10 +1021,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.000776531</v>
+        <v>0.813812561</v>
       </c>
       <c r="D20" t="n">
-        <v>0.75592717</v>
+        <v>-0.710199546</v>
       </c>
     </row>
     <row r="21">
@@ -922,12 +1038,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0.002159333</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.321296361</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -941,10 +1053,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.004910318</v>
+        <v>1.461536637</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.528253865</v>
+        <v>-10.001451313</v>
       </c>
     </row>
     <row r="23">
@@ -958,12 +1070,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>0.004097667</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-3.613335001</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -977,10 +1085,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001059718</v>
+        <v>0.5904941379999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.733396774</v>
+        <v>0.006763876</v>
       </c>
     </row>
     <row r="25">
@@ -994,12 +1102,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>0.001904667</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.52082518</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1013,10 +1117,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.00080379</v>
+        <v>0.123569487</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.728748718</v>
+        <v>-6.944010577</v>
       </c>
     </row>
     <row r="27">
@@ -1030,12 +1134,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>0.000113</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.086538462</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1049,10 +1149,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.004226454</v>
+        <v>0.540866382</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.026669101</v>
+        <v>0.121571951</v>
       </c>
     </row>
     <row r="29">
@@ -1066,12 +1166,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0.008023333000000001</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.948987854</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1085,10 +1181,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.003978232</v>
+        <v>1.037784616</v>
       </c>
       <c r="D30" t="n">
-        <v>-23.456343648</v>
+        <v>-41.65506127</v>
       </c>
     </row>
     <row r="31">
@@ -1102,12 +1198,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>0.001930667</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-10.868852459</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1121,10 +1213,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.000396929</v>
+        <v>0.51705843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.837161045</v>
+        <v>-0.418231115</v>
       </c>
     </row>
     <row r="33">
@@ -1138,12 +1230,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0.001544667</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.366305041</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1157,10 +1245,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006373191</v>
+        <v>1.650620164</v>
       </c>
       <c r="D34" t="n">
-        <v>0.359792818</v>
+        <v>-0.108594292</v>
       </c>
     </row>
     <row r="35">
@@ -1174,12 +1262,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>0.007716667</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.224836485</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1193,10 +1277,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.002186765</v>
+        <v>0.694597192</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.126295405</v>
+        <v>-1.39191152</v>
       </c>
     </row>
     <row r="37">
@@ -1210,12 +1294,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>0.000675</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.65234062</v>
-      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1229,10 +1309,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.001111706</v>
+        <v>0.674551363</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.26332456</v>
+        <v>-12.238759491</v>
       </c>
     </row>
     <row r="39">
@@ -1246,12 +1326,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>0.000484667</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.422700587</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1265,10 +1341,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.004176589</v>
+        <v>1.9373596</v>
       </c>
       <c r="D40" t="n">
-        <v>0.707808267</v>
+        <v>0.09381186699999999</v>
       </c>
     </row>
     <row r="41">
@@ -1282,12 +1358,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>0.002282</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.840352595</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1301,10 +1373,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.000536466</v>
+        <v>0.231009424</v>
       </c>
       <c r="D42" t="n">
-        <v>0.787172917</v>
+        <v>0.387260063</v>
       </c>
     </row>
     <row r="43">
@@ -1318,12 +1390,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>0.006301667</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-1.5</v>
-      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1337,10 +1405,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.006775747</v>
+        <v>0.658129657</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.190630761</v>
+        <v>0.226797474</v>
       </c>
     </row>
     <row r="45">
@@ -1354,12 +1422,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>0.004035333</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.290913351</v>
-      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1373,10 +1437,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.003266794</v>
+        <v>1.103639356</v>
       </c>
       <c r="D46" t="n">
-        <v>0.497639656</v>
+        <v>-0.134704441</v>
       </c>
     </row>
     <row r="47">
@@ -1390,12 +1454,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>0.000956333</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.852937156</v>
-      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1409,10 +1469,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.00055822</v>
+        <v>0.259394609</v>
       </c>
       <c r="D48" t="n">
-        <v>0.672790035</v>
+        <v>-0.016585307</v>
       </c>
     </row>
     <row r="49">
@@ -1426,12 +1486,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>0.000144333</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.915396639</v>
-      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1445,10 +1501,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.00024178</v>
+        <v>0.395505102</v>
       </c>
       <c r="D50" t="n">
-        <v>0.592658574</v>
+        <v>-3.455050431</v>
       </c>
     </row>
     <row r="51">
@@ -1462,12 +1518,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>0.000588</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.00935979</v>
-      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1481,10 +1533,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.002545987</v>
+        <v>0.784943619</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.518884151</v>
+        <v>-2.130896984</v>
       </c>
     </row>
     <row r="53">
@@ -1498,12 +1550,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>0.001954</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-0.165716558</v>
-      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1517,10 +1565,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.006588875</v>
+        <v>1.517802631</v>
       </c>
       <c r="D54" t="n">
-        <v>0.410690364</v>
+        <v>0.09236860400000001</v>
       </c>
     </row>
     <row r="55">
@@ -1534,12 +1582,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>0.003662667</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.672410709</v>
-      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1553,10 +1597,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.004864613</v>
+        <v>1.91439705</v>
       </c>
       <c r="D56" t="n">
-        <v>0.482377896</v>
+        <v>-0.361941598</v>
       </c>
     </row>
     <row r="57">
@@ -1570,12 +1614,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>0.004560667</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.514719444</v>
-      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1589,10 +1629,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.000479754</v>
+        <v>0.264794774</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.433172266</v>
+        <v>-30.120306641</v>
       </c>
     </row>
     <row r="59">
@@ -1606,12 +1646,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>0.002038</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-34.82421875</v>
-      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1625,10 +1661,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.00111989</v>
+        <v>0.237297393</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7776917880000001</v>
+        <v>0.685054775</v>
       </c>
     </row>
     <row r="61">
@@ -1642,12 +1678,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>0.002289</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.545612952</v>
-      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1661,10 +1693,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4.3875e-05</v>
+        <v>0.034209786</v>
       </c>
       <c r="D62" t="n">
-        <v>0.953887138</v>
+        <v>0.759611941</v>
       </c>
     </row>
     <row r="63">
@@ -1678,12 +1710,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>0.00025289</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.734213892</v>
-      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1697,10 +1725,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.628e-06</v>
+        <v>0.000107512</v>
       </c>
       <c r="D64" t="n">
-        <v>-411.199596875</v>
+        <v>-180.950046875</v>
       </c>
     </row>
     <row r="65">
@@ -1714,12 +1742,8 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>3e-09</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.15625</v>
-      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
